--- a/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_2_child_kap_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_2_child_kap_202105.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6A4B35-7BF3-440A-97E3-0E6563679193}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF05C7DF-EB01-4BB1-AC08-AB8287151F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="837">
   <si>
     <t>type</t>
   </si>
@@ -195,9 +195,6 @@
     <t>15.No answer</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>If other, please specify</t>
   </si>
   <si>
@@ -300,48 +297,6 @@
     <t>select_multiple defecation_place</t>
   </si>
   <si>
-    <t>1.Flush.toilet</t>
-  </si>
-  <si>
-    <t>2.Pit.latrine</t>
-  </si>
-  <si>
-    <t>2.a.Pit.latrine.with.slab</t>
-  </si>
-  <si>
-    <t>2.a.1.Do.not.flush(direct.pit)</t>
-  </si>
-  <si>
-    <t>2.b.Pit.latrine.without.slab</t>
-  </si>
-  <si>
-    <t>2.b.1.Flush.with.water.(near.house)</t>
-  </si>
-  <si>
-    <t>2.b.2.Flush.with.water.(away.from.house)</t>
-  </si>
-  <si>
-    <t>3.Composting.toilet</t>
-  </si>
-  <si>
-    <t>4.Bucket.latrine</t>
-  </si>
-  <si>
-    <t>5.Hanging.latrine</t>
-  </si>
-  <si>
-    <t>6.No.structure/outdoors(in.the.bush)</t>
-  </si>
-  <si>
-    <t>8.Don’t.know</t>
-  </si>
-  <si>
-    <t>9.No.answer</t>
-  </si>
-  <si>
-    <t>6.No.structure/outdoors</t>
-  </si>
-  <si>
     <t>10. Do you wash your hands before meals at home?</t>
   </si>
   <si>
@@ -507,24 +462,6 @@
     <t>treatment_worms</t>
   </si>
   <si>
-    <t>2.Health.facility</t>
-  </si>
-  <si>
-    <t>3.Health.worker.in.community/village</t>
-  </si>
-  <si>
-    <t>5.Print.media(e.g.,poster,newspaper)</t>
-  </si>
-  <si>
-    <t>6.Family.member</t>
-  </si>
-  <si>
-    <t>9.Don’t.know</t>
-  </si>
-  <si>
-    <t>10.No.answer</t>
-  </si>
-  <si>
     <t>select_multiple treatment_worms</t>
   </si>
   <si>
@@ -549,24 +486,6 @@
     <t>7.No answer</t>
   </si>
   <si>
-    <t>1.Cannot.be.treated</t>
-  </si>
-  <si>
-    <t>2.Medicine.from.a.healthcare.centre/pharmacy</t>
-  </si>
-  <si>
-    <t>3.Traditional.medicine/herbs</t>
-  </si>
-  <si>
-    <t>4.Religious.practices</t>
-  </si>
-  <si>
-    <t>6.Don’t.know</t>
-  </si>
-  <si>
-    <t>7.No.answer</t>
-  </si>
-  <si>
     <t>Knowledge about schistosomiasis, symptoms, transmission and control</t>
   </si>
   <si>
@@ -609,9 +528,6 @@
     <t>3.MDA campaign</t>
   </si>
   <si>
-    <t>3.MDA.campaign</t>
-  </si>
-  <si>
     <t>4.Traditional medicine / herbs</t>
   </si>
   <si>
@@ -627,18 +543,6 @@
     <t>8.No answer</t>
   </si>
   <si>
-    <t>4.Traditional.medicine/herbs</t>
-  </si>
-  <si>
-    <t>5.Religious.practices</t>
-  </si>
-  <si>
-    <t>7.Don’t.know</t>
-  </si>
-  <si>
-    <t>8.No.answer</t>
-  </si>
-  <si>
     <t>Awareness and acceptability of large-scale distribution of medicine to control intestinal worms (lombrigas) or schistosomiasis (bilharzíase)</t>
   </si>
   <si>
@@ -669,18 +573,6 @@
     <t>5.No answer</t>
   </si>
   <si>
-    <t>1.To.kill.intestinal.worms.(lombrigas)</t>
-  </si>
-  <si>
-    <t>2.To.kill.schistosomiasis.infection.(bilharzíase)</t>
-  </si>
-  <si>
-    <t>4.Don’t.know/cannot.remember</t>
-  </si>
-  <si>
-    <t>5.No.answer</t>
-  </si>
-  <si>
     <t>26. Did you take the medicine that was delivered through the school last year?</t>
   </si>
   <si>
@@ -726,48 +618,6 @@
     <t>14.Don’t know / cannot remember</t>
   </si>
   <si>
-    <t>1.I.had.intestinal.worms.(lombrigas)</t>
-  </si>
-  <si>
-    <t>2.I.thought.that.I.might.have.intestinal.worms.at.the.time.of.distribution.(lombrigas)</t>
-  </si>
-  <si>
-    <t>3.To.prevent.intestinal.worms.(lombrigas)</t>
-  </si>
-  <si>
-    <t>4.I.had.schistosomiasis.(bilharzíase)</t>
-  </si>
-  <si>
-    <t>5.I.thought.that.I.might.have.schistosomiasis.(bilharzíase).at.the.time.of.distribution</t>
-  </si>
-  <si>
-    <t>6.To.prevent.schistosomiasis.(bilharzíase)</t>
-  </si>
-  <si>
-    <t>7.For.treatment.of.a.stomach.disorder</t>
-  </si>
-  <si>
-    <t>8.For.treatment.of.a.urinary.disorder</t>
-  </si>
-  <si>
-    <t>9.Others.took.it</t>
-  </si>
-  <si>
-    <t>10.Forced.to.take.by.teacher</t>
-  </si>
-  <si>
-    <t>11.Forced.to.take.by.parent/guardian/caregiver</t>
-  </si>
-  <si>
-    <t>12.Offered.free</t>
-  </si>
-  <si>
-    <t>14.Don’t.know/cannot.remember</t>
-  </si>
-  <si>
-    <t>15.No.answer</t>
-  </si>
-  <si>
     <t>28. Did you find it easy to take the medicine?</t>
   </si>
   <si>
@@ -804,21 +654,6 @@
     <t>5.Don’t know / cannot remember</t>
   </si>
   <si>
-    <t>1.Yes,to.the.medicine.for.intestinal.worms.(lombrigas)</t>
-  </si>
-  <si>
-    <t>2.Yes,to.the.medicine.for.schistosomiasis.(bilharzíase)</t>
-  </si>
-  <si>
-    <t>3.Yes,but.not.sure.which.medicine</t>
-  </si>
-  <si>
-    <t>5.Don’t.know/cannot.remember</t>
-  </si>
-  <si>
-    <t>6.No.answer</t>
-  </si>
-  <si>
     <t>30. Could you please specify some of the side effects?</t>
   </si>
   <si>
@@ -846,15 +681,6 @@
     <t>7.Cannot remember</t>
   </si>
   <si>
-    <t>1.Stomach.ache</t>
-  </si>
-  <si>
-    <t>4.Nausea/vomiting</t>
-  </si>
-  <si>
-    <t>7.Cannot.remember</t>
-  </si>
-  <si>
     <t>31. How were these side effects managed?</t>
   </si>
   <si>
@@ -888,21 +714,6 @@
     <t>6.Cannot remember</t>
   </si>
   <si>
-    <t>1.No.treatment</t>
-  </si>
-  <si>
-    <t>2.Medicines.from.healthcare.centre/pharmacy</t>
-  </si>
-  <si>
-    <t>3.Traditional.medicine</t>
-  </si>
-  <si>
-    <t>4.Spiritual.healer</t>
-  </si>
-  <si>
-    <t>6.Cannot.remember</t>
-  </si>
-  <si>
     <t>didnot_med</t>
   </si>
   <si>
@@ -945,39 +756,6 @@
     <t>13.No answer</t>
   </si>
   <si>
-    <t>1.Was.not.sick/symptomatic</t>
-  </si>
-  <si>
-    <t>2.Was.not.at.school</t>
-  </si>
-  <si>
-    <t>4.Fear.of.tablet.size/taste</t>
-  </si>
-  <si>
-    <t>5.Parent/guardian/caregiver.declined</t>
-  </si>
-  <si>
-    <t>6.Household.head.declined</t>
-  </si>
-  <si>
-    <t>7.Teacher.declined</t>
-  </si>
-  <si>
-    <t>8.Didn’t.like.medicine.distributor</t>
-  </si>
-  <si>
-    <t>9.Cultural.or.religious.factors</t>
-  </si>
-  <si>
-    <t>10.Not.willing</t>
-  </si>
-  <si>
-    <t>12.Don’t.know/cannot.remember</t>
-  </si>
-  <si>
-    <t>13.No.answer</t>
-  </si>
-  <si>
     <t>33. Are you happy with the medicine to kill intestinal worms (lombrigas) being delivered to you at school?</t>
   </si>
   <si>
@@ -1032,21 +810,6 @@
     <t>5.It’s offered for free</t>
   </si>
   <si>
-    <t>1.To.treat.intestinal.worms.(lombrigas)</t>
-  </si>
-  <si>
-    <t>2.To.prevent.intestinal.worms.(lombrigas)</t>
-  </si>
-  <si>
-    <t>3.Because.others.take.it</t>
-  </si>
-  <si>
-    <t>4.Forced.to.take.it.by.household.head/parent/guardian/medication.distributor.or.any.other.person</t>
-  </si>
-  <si>
-    <t>5.It’s.offered.for.free</t>
-  </si>
-  <si>
     <t>37. Why would you not take medicine to kill  intestinal worms (lombrigas) if there was future delivery of medicines in your school to all school children?</t>
   </si>
   <si>
@@ -1089,33 +852,6 @@
     <t>12.No answer</t>
   </si>
   <si>
-    <t>7.Don’t.like.medicine.distributor</t>
-  </si>
-  <si>
-    <t>3.Fear.of.tablet.size/taste</t>
-  </si>
-  <si>
-    <t>4.Parent/guardian/caregiver.declined</t>
-  </si>
-  <si>
-    <t>5.Household.head.declined</t>
-  </si>
-  <si>
-    <t>6.Teacher.declined</t>
-  </si>
-  <si>
-    <t>8.Cultural.or.religious.factors</t>
-  </si>
-  <si>
-    <t>9.Not.willing</t>
-  </si>
-  <si>
-    <t>11.Don’t.know</t>
-  </si>
-  <si>
-    <t>12.No.answer</t>
-  </si>
-  <si>
     <t>38. If given a choice, how or where would you prefer the medicine to kill  intestinal worms (lombrigas) be given?</t>
   </si>
   <si>
@@ -1134,12 +870,6 @@
     <t>3.Hospitals</t>
   </si>
   <si>
-    <t>2.Central.point.at.village</t>
-  </si>
-  <si>
-    <t>5.Don’t.know</t>
-  </si>
-  <si>
     <t>39. Are you happy with the medicine to kill  schistosomiasis (bilharzíase) being delivered to you at school?</t>
   </si>
   <si>
@@ -1179,15 +909,9 @@
     <t>1.To treat schistosomiasis (bilharzíase)</t>
   </si>
   <si>
-    <t>1.To.treat.schistosomiasis.(bilharzíase)</t>
-  </si>
-  <si>
     <t>2.To prevent schistosomiasis (bilharzíase)</t>
   </si>
   <si>
-    <t>2.To.prevent.schistosomiasis.(bilharzíase)</t>
-  </si>
-  <si>
     <t>43. Why would you not take medicine to kill  schistosomiasis (bilharzíase) if there is future delivery of medicines in your school to all school children?</t>
   </si>
   <si>
@@ -1275,12 +999,6 @@
     <t>Village</t>
   </si>
   <si>
-    <t>3.Fear.of.side.effects.(mention.some)</t>
-  </si>
-  <si>
-    <t>2.Fear.of.side.effects.(mention.some)</t>
-  </si>
-  <si>
     <t>note1</t>
   </si>
   <si>
@@ -1938,12 +1656,6 @@
     <t>Resultado do questionário</t>
   </si>
   <si>
-    <t>ao_sch_sth_baseline_2_child_kap_202105</t>
-  </si>
-  <si>
-    <t>2. Student Knowledge, Attitudes and Practices (KAP) Questionnaire</t>
-  </si>
-  <si>
     <t>. &gt; 9 and .&lt; 100</t>
   </si>
   <si>
@@ -1980,24 +1692,6 @@
     <t>readonly</t>
   </si>
   <si>
-    <t>. &lt;= 12</t>
-  </si>
-  <si>
-    <t>. &lt;=31</t>
-  </si>
-  <si>
-    <t>. &lt; 2015 and . &gt; 2010</t>
-  </si>
-  <si>
-    <t>The age must be between 6 to 9 years</t>
-  </si>
-  <si>
-    <t>A idade deve ser entre os 6 e 9 anos</t>
-  </si>
-  <si>
-    <t>. &lt; 20</t>
-  </si>
-  <si>
     <t>The value is incorrect</t>
   </si>
   <si>
@@ -2106,27 +1800,18 @@
     <t>p_water_source_other</t>
   </si>
   <si>
-    <t>selected(${p_water_source}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_defecation_place</t>
   </si>
   <si>
     <t>p_defecation_place_other</t>
   </si>
   <si>
-    <t>selected(${p_defecation_place}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_defecation_school</t>
   </si>
   <si>
     <t>p_defecation_school_other</t>
   </si>
   <si>
-    <t>selected(${p_defecation_school}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_wash_hand_home</t>
   </si>
   <si>
@@ -2145,18 +1830,12 @@
     <t>p_material_wash_hand_home_other</t>
   </si>
   <si>
-    <t>selected(${p_material_wash_hand_home}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_material_wash_hand_school</t>
   </si>
   <si>
     <t>p_material_wash_hand_school_other</t>
   </si>
   <si>
-    <t>selected(${p_material_wash_hand_school}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_shoes_outdoors</t>
   </si>
   <si>
@@ -2175,15 +1854,9 @@
     <t>p_where_know_worms</t>
   </si>
   <si>
-    <t>${p_know_worms} = '1.Yes'</t>
-  </si>
-  <si>
     <t>p_where_know_worms_other</t>
   </si>
   <si>
-    <t>selected(${p_where_know_worms}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_treatment_worms</t>
   </si>
   <si>
@@ -2199,48 +1872,30 @@
     <t>p_where_know_sch</t>
   </si>
   <si>
-    <t>${p_know_sch} = '1.Yes'</t>
-  </si>
-  <si>
     <t>p_where_know_sch_other</t>
   </si>
   <si>
-    <t>selected(${p_where_know_sch}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_treatment_sch</t>
   </si>
   <si>
     <t>p_treatment_sch_other</t>
   </si>
   <si>
-    <t>selected(${p_treatment_sch}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_school_visit_med</t>
   </si>
   <si>
     <t>p_school_visit_med_other</t>
   </si>
   <si>
-    <t>selected(${p_school_visit_med}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_school_med_lastyear</t>
   </si>
   <si>
     <t>p_why_take_medicine</t>
   </si>
   <si>
-    <t>${p_school_med_lastyear} = '1.Yes'</t>
-  </si>
-  <si>
     <t>p_why_take_medicine_other</t>
   </si>
   <si>
-    <t>selected(${p_why_take_medicine}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_easy_take_med</t>
   </si>
   <si>
@@ -2253,18 +1908,12 @@
     <t>p_side_effects_spec_other</t>
   </si>
   <si>
-    <t>selected(${p_side_effects_spec}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_side_effects_man</t>
   </si>
   <si>
     <t>p_side_effects_man_other</t>
   </si>
   <si>
-    <t>selected(${p_side_effects_man}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_didnot_med</t>
   </si>
   <si>
@@ -2274,15 +1923,9 @@
     <t>p_didnot_med_other</t>
   </si>
   <si>
-    <t>selected(${p_didnot_med}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_didnot_med_concerns</t>
   </si>
   <si>
-    <t>selected(${p_didnot_med}, ‘3.Fear.of.side.effects.(mention.some)’)</t>
-  </si>
-  <si>
     <t>p_happy_kill_worms</t>
   </si>
   <si>
@@ -2298,33 +1941,21 @@
     <t>p_why_take_med_other</t>
   </si>
   <si>
-    <t>selected(${p_why_take_med}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_why_dontake_med</t>
   </si>
   <si>
     <t>p_why_dontake_med_other</t>
   </si>
   <si>
-    <t>selected(${p_why_dontake_med}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_why_dontake_med_concerns</t>
   </si>
   <si>
-    <t>selected(${p_why_dontake_med}, ‘2.Fear.of.side.effects.(mention.some)’)</t>
-  </si>
-  <si>
     <t>p_where_prefer_med</t>
   </si>
   <si>
     <t>p_where_prefer_med_other</t>
   </si>
   <si>
-    <t>selected(${p_where_prefer_med}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_happy_med_school</t>
   </si>
   <si>
@@ -2340,33 +1971,21 @@
     <t>p_why_take_schmed_other</t>
   </si>
   <si>
-    <t>selected(${p_why_take_schmed}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_why_dontake_schmed</t>
   </si>
   <si>
     <t>p_why_dontake_schmed_other</t>
   </si>
   <si>
-    <t>selected(${p_why_dontake_schmed}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_why_dontake_schmed_concerns</t>
   </si>
   <si>
-    <t>selected(${p_why_dontake_schmed}, ‘2.Fear.of.side.effects.(mention.some)’)</t>
-  </si>
-  <si>
     <t>p_where_prefer_schmed</t>
   </si>
   <si>
     <t>p_where_prefer_schmed_other</t>
   </si>
   <si>
-    <t>selected(${p_where_prefer_schmed}, ‘other’)</t>
-  </si>
-  <si>
     <t>p_outcome_interview</t>
   </si>
   <si>
@@ -2380,6 +1999,540 @@
   </si>
   <si>
     <t>Registre o seguinte código de ID exclusivo para o entrevistado em uma lista separada e em cada teste de diagnóstico administrado</t>
+  </si>
+  <si>
+    <t>2. Formar criança - Conhecimentos, Atitudes e Práticas dos Estudantes</t>
+  </si>
+  <si>
+    <t>. &gt; 0 and . &lt;= 12</t>
+  </si>
+  <si>
+    <t>.&gt; 0 and . &lt;=31</t>
+  </si>
+  <si>
+    <t>The month is invalid</t>
+  </si>
+  <si>
+    <t>O mês é inválido</t>
+  </si>
+  <si>
+    <t>The day is invalid</t>
+  </si>
+  <si>
+    <t>O dia é inválido</t>
+  </si>
+  <si>
+    <t>.&gt;0</t>
+  </si>
+  <si>
+    <t>Must be greater than zero</t>
+  </si>
+  <si>
+    <t>Deve ser maior que zero</t>
+  </si>
+  <si>
+    <t>O ano deve ser entre 6 e 9 (2012  e 2015)</t>
+  </si>
+  <si>
+    <t>The year must be between 6 and 9 (2012 and 2015)</t>
+  </si>
+  <si>
+    <t>. &lt;= 2015 and . &gt;= 2012</t>
+  </si>
+  <si>
+    <t>.&gt; 0 and . &lt; 20</t>
+  </si>
+  <si>
+    <t>ao_sch_sth_baseline_2_child_kap_202105_v2</t>
+  </si>
+  <si>
+    <t>6. furo com bomba</t>
+  </si>
+  <si>
+    <t>15. Sem resposta</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>1.Autoclismo</t>
+  </si>
+  <si>
+    <t>2.Latrina.com.fossa</t>
+  </si>
+  <si>
+    <t>2.Latrina.com.fossa.a.Com.tampo</t>
+  </si>
+  <si>
+    <t>2.Latrina.com.fossa.a.Com.tampo.i.Sem.descarga.tiro.direto</t>
+  </si>
+  <si>
+    <t>2.Latrina.com.fossa.b.Sem.tampo</t>
+  </si>
+  <si>
+    <t>3.Sanita.de.compostagem</t>
+  </si>
+  <si>
+    <t>4.Latrina.de.bacia</t>
+  </si>
+  <si>
+    <t>5.Latrina.pendurada</t>
+  </si>
+  <si>
+    <t>6.No.capim</t>
+  </si>
+  <si>
+    <t>9.Sem.resposta</t>
+  </si>
+  <si>
+    <t>4.Latrina.de.balde</t>
+  </si>
+  <si>
+    <t>1.Sim,.sempre</t>
+  </si>
+  <si>
+    <t>3.Sim,.raramente</t>
+  </si>
+  <si>
+    <t>4.Nunca</t>
+  </si>
+  <si>
+    <t>6.Sem.resposta</t>
+  </si>
+  <si>
+    <t>3. Cinzas</t>
+  </si>
+  <si>
+    <t>6. Sem resposta</t>
+  </si>
+  <si>
+    <t>1. Sim</t>
+  </si>
+  <si>
+    <t>4. Sem resposta</t>
+  </si>
+  <si>
+    <t>1.Escola</t>
+  </si>
+  <si>
+    <t>2.Unidade.de.saúde</t>
+  </si>
+  <si>
+    <t>3.ADECOS</t>
+  </si>
+  <si>
+    <t>6.Membro.da.família</t>
+  </si>
+  <si>
+    <t>7.Amigo</t>
+  </si>
+  <si>
+    <t>10.Sem.resposta</t>
+  </si>
+  <si>
+    <t>7.Sem.resposta</t>
+  </si>
+  <si>
+    <t>4.AMM</t>
+  </si>
+  <si>
+    <t>8.Sem.resposta</t>
+  </si>
+  <si>
+    <t>1.Controlar.os.vermes.intestinais.lombrigas</t>
+  </si>
+  <si>
+    <t>2.Controlar.a.Schistosomíase</t>
+  </si>
+  <si>
+    <t>5.Sem.resposta</t>
+  </si>
+  <si>
+    <t>1.Eu.tinha.vermes.intestinais.lombrigas</t>
+  </si>
+  <si>
+    <t>2.Podia..ter.vermes.intestinais.lombrigas</t>
+  </si>
+  <si>
+    <t>3.Para.prevenir.vermes.intestinais.lombrigas</t>
+  </si>
+  <si>
+    <t>4.Eu.tinha.Schistosomíase</t>
+  </si>
+  <si>
+    <t>5.Podia.ter.Schistosomíase</t>
+  </si>
+  <si>
+    <t>6.Para.evitar.a.Schistosomíase</t>
+  </si>
+  <si>
+    <t>9.Os.outros.tomaram</t>
+  </si>
+  <si>
+    <t>12.Oferecido.gratuitamente</t>
+  </si>
+  <si>
+    <t>15.Sem.resposta</t>
+  </si>
+  <si>
+    <t>1.Sim,.ao.medicamento.para.os.vermes.intestinais.lombrigas</t>
+  </si>
+  <si>
+    <t>2.Sim,.ao.medicamento.para.a.Schistosomíase</t>
+  </si>
+  <si>
+    <t>1.Dor.de.estômago</t>
+  </si>
+  <si>
+    <t>3.Febre</t>
+  </si>
+  <si>
+    <t>5.Tonturas</t>
+  </si>
+  <si>
+    <t>1.Sem.tratamento</t>
+  </si>
+  <si>
+    <t>3.Medicina.tradicional</t>
+  </si>
+  <si>
+    <t>4.Quimbandeiro</t>
+  </si>
+  <si>
+    <t>4.Medo.do.tamanho.do.comprimido/sabor</t>
+  </si>
+  <si>
+    <t>5.Pai/.tutor/cuidador.recusou</t>
+  </si>
+  <si>
+    <t>7.Professor.recusou</t>
+  </si>
+  <si>
+    <t>9.Fatores.culturais.ou.religiosos</t>
+  </si>
+  <si>
+    <t>13.Sem.resposta</t>
+  </si>
+  <si>
+    <t>3.Sem.resposta</t>
+  </si>
+  <si>
+    <t>1.Para.tratar.os.vermes.intestinais.lombrigas</t>
+  </si>
+  <si>
+    <t>2.Para.prevenir.os.vermes.intestinais.lombrigas</t>
+  </si>
+  <si>
+    <t>3.Porque.os.outros.tomam</t>
+  </si>
+  <si>
+    <t>3.Medo.do.tamanho.do.comprimido/sabor</t>
+  </si>
+  <si>
+    <t>4.Pai/.tutor.recusa</t>
+  </si>
+  <si>
+    <t>5.Chefe.da.família.recusa</t>
+  </si>
+  <si>
+    <t>6.Professor.recusou</t>
+  </si>
+  <si>
+    <t>8.Fatores.culturais.ou.religiosos</t>
+  </si>
+  <si>
+    <t>12.Sem.resposta</t>
+  </si>
+  <si>
+    <t>1.Escolas</t>
+  </si>
+  <si>
+    <t>2.Ponto.central.na.aldeia</t>
+  </si>
+  <si>
+    <t>1.Para.tratar.a.Schistosomíase</t>
+  </si>
+  <si>
+    <t>2.Para.prevenir.a.Schistosomíase</t>
+  </si>
+  <si>
+    <t>1 Completo</t>
+  </si>
+  <si>
+    <t>2 Incompleto</t>
+  </si>
+  <si>
+    <t>3 Recusado</t>
+  </si>
+  <si>
+    <t>8. Camiao-cisterna</t>
+  </si>
+  <si>
+    <t>14. Nao sei</t>
+  </si>
+  <si>
+    <t>8.Nao.sei</t>
+  </si>
+  <si>
+    <t>5.Nao.sei</t>
+  </si>
+  <si>
+    <t>5. Nao sei</t>
+  </si>
+  <si>
+    <t>2. Nao</t>
+  </si>
+  <si>
+    <t>3. Nao sei</t>
+  </si>
+  <si>
+    <t>4.Televisao</t>
+  </si>
+  <si>
+    <t>5.Meios.de.impressao.por.exemplo,.cartaz,.jornal</t>
+  </si>
+  <si>
+    <t>9.Nao.sei</t>
+  </si>
+  <si>
+    <t>1.Nao.pode.ser.tratado</t>
+  </si>
+  <si>
+    <t>6.Nao.sei</t>
+  </si>
+  <si>
+    <t>1.Nao.pode.ser.tratada</t>
+  </si>
+  <si>
+    <t>7.Nao.sei</t>
+  </si>
+  <si>
+    <t>4.Nao.sei./.nao.se.lembra</t>
+  </si>
+  <si>
+    <t>2.Nao</t>
+  </si>
+  <si>
+    <t>3.Nao sei/ nao me lembro</t>
+  </si>
+  <si>
+    <t>14.Nao.sei./.nao.se.lembra</t>
+  </si>
+  <si>
+    <t>3.Sim,.mas.nao.sei.qual.medicamento</t>
+  </si>
+  <si>
+    <t>4.Nao</t>
+  </si>
+  <si>
+    <t>5.Nao.sei./.nao.se.lembra</t>
+  </si>
+  <si>
+    <t>7.Nao.me.lembro</t>
+  </si>
+  <si>
+    <t>1.Nao.estava.doente./.com.sintomas</t>
+  </si>
+  <si>
+    <t>2.Nao.estava.na.escola</t>
+  </si>
+  <si>
+    <t>6.O.chefe.da.casa.nao.deixou</t>
+  </si>
+  <si>
+    <t>8.Nao.gostou.do.distribuidor.de.medicamentos</t>
+  </si>
+  <si>
+    <t>10.Nao.quer</t>
+  </si>
+  <si>
+    <t>12.Nao.sei./.nao.me.lembro</t>
+  </si>
+  <si>
+    <t>1.Nao.estava.doente</t>
+  </si>
+  <si>
+    <t>7.Nao.gostou.do.distribuidor.de.medicamentos</t>
+  </si>
+  <si>
+    <t>9.Nao.quer</t>
+  </si>
+  <si>
+    <t>11.Nao.sei</t>
+  </si>
+  <si>
+    <t>4. poco/cacimba protegida</t>
+  </si>
+  <si>
+    <t>5. poco/cacimba nao protegida</t>
+  </si>
+  <si>
+    <t>7.Para.o.tratamento.de.uma.doenca.do.estomago</t>
+  </si>
+  <si>
+    <t>10.Forcado.a.tomar.pelo.professor</t>
+  </si>
+  <si>
+    <t>11.Forcado.a.tomar.pelo.pai/.tutor./cuidador</t>
+  </si>
+  <si>
+    <t>2.Dor.de.cabeca</t>
+  </si>
+  <si>
+    <t>4.Seria.forcado.a.tomar.pelo.chefe.da.família/.pai./.tutor./.distribuidor.de.medicamentos.ou.qualquer.outra.pessoa</t>
+  </si>
+  <si>
+    <t>2. Torneira ligada a rede pública – dentro da casa</t>
+  </si>
+  <si>
+    <t>3. Torneira ligada a rede pública – fora de casa</t>
+  </si>
+  <si>
+    <t>2.Sim,.as.vezes</t>
+  </si>
+  <si>
+    <t>7. Agua engarrafada</t>
+  </si>
+  <si>
+    <t>9. Agua de nascente – fonte protegida</t>
+  </si>
+  <si>
+    <t>10. Agua de nascente – fonte nao protegida</t>
+  </si>
+  <si>
+    <t>11. Agua da chuva/chimpacas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Aguas superficiais (por exemplo, lago, rio, ribeiro, lagoa, canais, valas de irrigacao) </t>
+  </si>
+  <si>
+    <t>2. Agua e sabao</t>
+  </si>
+  <si>
+    <t>1. Nao ha agua</t>
+  </si>
+  <si>
+    <t>2.Latrina.com.fossa.b.Sem.tampo.ii.Descarga.com.agua.fossa.individual</t>
+  </si>
+  <si>
+    <t>2.Latrina.com.fossa.b.Sem.tampo.iii.Decarga.com.agua.fossa.comum</t>
+  </si>
+  <si>
+    <t>1. Apenas agua</t>
+  </si>
+  <si>
+    <t>2.Medicamentos.de.um.centro.de.saúde/farmacia/AMM</t>
+  </si>
+  <si>
+    <t>3.Medicina.tradicional./.ervas.aromaticas</t>
+  </si>
+  <si>
+    <t>4.Praticas.religiosas</t>
+  </si>
+  <si>
+    <t>2.Medicina.de.um.centro.de.saúde/farmacia</t>
+  </si>
+  <si>
+    <t>5.Praticas.religiosas</t>
+  </si>
+  <si>
+    <t>8.Para.o.tratamento.de.uma.doenca.urinaria</t>
+  </si>
+  <si>
+    <t>4.Nauseas./.vómitos</t>
+  </si>
+  <si>
+    <t>2.Medicamentos.da.unidade.sanitaria/.farmacia</t>
+  </si>
+  <si>
+    <t>3.Medo.dos.efeitos.secundarios.mencionar.alguns</t>
+  </si>
+  <si>
+    <t>5.e.gratis</t>
+  </si>
+  <si>
+    <t>2.Medo.dos.efeitos.secundarios.mencionar.alguns</t>
+  </si>
+  <si>
+    <t>3.Unidade.sanitaria</t>
+  </si>
+  <si>
+    <t>3.Unidade.Sanitaria</t>
+  </si>
+  <si>
+    <t>selected(${p_water_source}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_defecation_place}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_defecation_school}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_material_wash_hand_home}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_material_wash_hand_school}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_where_know_worms}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_where_know_sch}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_treatment_sch}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_school_visit_med}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_why_take_medicine}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_side_effects_spec}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_side_effects_man}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_didnot_med}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_why_take_med}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_why_dontake_med}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_where_prefer_med}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_why_take_schmed}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_why_dontake_schmed}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>selected(${p_where_prefer_schmed}, ‘Outros’)</t>
+  </si>
+  <si>
+    <t>${p_know_worms} = '1.Sim'</t>
+  </si>
+  <si>
+    <t>${p_know_sch} = '1.Sim'</t>
+  </si>
+  <si>
+    <t>${p_school_med_lastyear} = '1.Sim'</t>
+  </si>
+  <si>
+    <t>selected(${p_why_dontake_schmed}, ‘2.Fear of side effects (mention some)’)</t>
+  </si>
+  <si>
+    <t>selected(${p_why_dontake_med}, ‘2.Fear of side effects (mention some)’)</t>
+  </si>
+  <si>
+    <t>selected(${p_didnot_med}, ‘3.Fear of side effects (mention some)’)</t>
   </si>
 </sst>
 </file>
@@ -2787,10 +2940,10 @@
   <dimension ref="A1:P148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,7 +2955,7 @@
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.140625" customWidth="1"/>
     <col min="10" max="10" width="37.42578125" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" customWidth="1"/>
@@ -2826,10 +2979,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>661</v>
+        <v>559</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>663</v>
+        <v>561</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -2841,7 +2994,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>662</v>
+        <v>560</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -2859,7 +3012,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>651</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -2867,13 +3020,13 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>676</v>
+        <v>574</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>424</v>
+        <v>330</v>
       </c>
       <c r="M5" t="s">
         <v>17</v>
@@ -2884,13 +3037,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>677</v>
+        <v>575</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>425</v>
+        <v>331</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
@@ -2901,22 +3054,22 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>678</v>
+        <v>576</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>426</v>
+        <v>332</v>
       </c>
       <c r="H8" t="s">
-        <v>640</v>
+        <v>544</v>
       </c>
       <c r="I8" t="s">
-        <v>641</v>
+        <v>545</v>
       </c>
       <c r="J8" t="s">
-        <v>642</v>
+        <v>546</v>
       </c>
       <c r="M8" t="s">
         <v>17</v>
@@ -2927,13 +3080,13 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>679</v>
+        <v>577</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>429</v>
+        <v>335</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
@@ -2944,13 +3097,13 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>680</v>
+        <v>578</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>430</v>
+        <v>336</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
@@ -2961,13 +3114,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>681</v>
+        <v>579</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>431</v>
+        <v>337</v>
       </c>
       <c r="M11" t="s">
         <v>17</v>
@@ -2978,13 +3131,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>682</v>
+        <v>580</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>427</v>
+        <v>333</v>
       </c>
       <c r="M12" t="s">
         <v>17</v>
@@ -2995,13 +3148,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>683</v>
+        <v>581</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>428</v>
+        <v>334</v>
       </c>
       <c r="M13" t="s">
         <v>17</v>
@@ -3009,16 +3162,16 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>419</v>
+        <v>325</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>432</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3026,13 +3179,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>675</v>
+        <v>573</v>
       </c>
       <c r="C18" t="s">
-        <v>674</v>
+        <v>572</v>
       </c>
       <c r="E18" t="s">
-        <v>785</v>
+        <v>658</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
@@ -3046,13 +3199,13 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>684</v>
+        <v>582</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>433</v>
+        <v>339</v>
       </c>
       <c r="M19" t="s">
         <v>17</v>
@@ -3063,22 +3216,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>685</v>
+        <v>583</v>
       </c>
       <c r="C21" t="s">
-        <v>643</v>
+        <v>547</v>
+      </c>
+      <c r="D21" t="s">
+        <v>670</v>
       </c>
       <c r="E21" t="s">
-        <v>646</v>
+        <v>550</v>
+      </c>
+      <c r="F21" t="s">
+        <v>669</v>
       </c>
       <c r="H21" t="s">
-        <v>654</v>
+        <v>671</v>
       </c>
       <c r="I21" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="J21" t="s">
-        <v>656</v>
+        <v>669</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -3086,16 +3248,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>686</v>
+        <v>584</v>
       </c>
       <c r="C22" t="s">
-        <v>644</v>
+        <v>548</v>
       </c>
       <c r="E22" t="s">
-        <v>647</v>
+        <v>551</v>
       </c>
       <c r="H22" t="s">
-        <v>652</v>
+        <v>660</v>
+      </c>
+      <c r="I22" t="s">
+        <v>662</v>
+      </c>
+      <c r="J22" t="s">
+        <v>663</v>
+      </c>
+      <c r="M22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -3103,16 +3274,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>687</v>
+        <v>585</v>
       </c>
       <c r="C23" t="s">
-        <v>645</v>
+        <v>549</v>
       </c>
       <c r="E23" t="s">
-        <v>648</v>
+        <v>552</v>
       </c>
       <c r="H23" t="s">
-        <v>653</v>
+        <v>661</v>
+      </c>
+      <c r="I23" t="s">
+        <v>664</v>
+      </c>
+      <c r="J23" t="s">
+        <v>665</v>
+      </c>
+      <c r="M23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -3120,16 +3300,16 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>688</v>
+        <v>586</v>
       </c>
       <c r="C24" t="s">
-        <v>649</v>
+        <v>553</v>
       </c>
       <c r="E24" t="s">
-        <v>650</v>
+        <v>554</v>
       </c>
       <c r="L24" t="s">
-        <v>689</v>
+        <v>587</v>
       </c>
       <c r="M24" t="s">
         <v>17</v>
@@ -3143,13 +3323,22 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>690</v>
+        <v>588</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>435</v>
+        <v>341</v>
+      </c>
+      <c r="H26" t="s">
+        <v>666</v>
+      </c>
+      <c r="I26" t="s">
+        <v>667</v>
+      </c>
+      <c r="J26" t="s">
+        <v>668</v>
       </c>
       <c r="M26" t="s">
         <v>17</v>
@@ -3160,22 +3349,22 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>691</v>
+        <v>589</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>436</v>
+        <v>342</v>
       </c>
       <c r="H28" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="I28" t="s">
-        <v>658</v>
+        <v>556</v>
       </c>
       <c r="J28" t="s">
-        <v>659</v>
+        <v>557</v>
       </c>
       <c r="M28" t="s">
         <v>17</v>
@@ -3183,16 +3372,16 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>420</v>
+        <v>326</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>434</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -3203,7 +3392,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>692</v>
+        <v>590</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -3212,10 +3401,10 @@
         <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>437</v>
+        <v>343</v>
       </c>
       <c r="F33" t="s">
-        <v>455</v>
+        <v>361</v>
       </c>
       <c r="M33" t="s">
         <v>17</v>
@@ -3226,16 +3415,16 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>693</v>
+        <v>591</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K34" t="s">
-        <v>694</v>
+        <v>812</v>
       </c>
       <c r="M34" t="s">
         <v>17</v>
@@ -3243,22 +3432,22 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>695</v>
+        <v>592</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>454</v>
+        <v>360</v>
       </c>
       <c r="F36" t="s">
-        <v>456</v>
+        <v>362</v>
       </c>
       <c r="M36" t="s">
         <v>17</v>
@@ -3269,16 +3458,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>696</v>
+        <v>593</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K37" t="s">
-        <v>697</v>
+        <v>813</v>
       </c>
       <c r="M37" t="s">
         <v>17</v>
@@ -3286,22 +3475,22 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>698</v>
+        <v>594</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>471</v>
+        <v>377</v>
       </c>
       <c r="F39" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
       <c r="M39" t="s">
         <v>17</v>
@@ -3312,16 +3501,16 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>699</v>
+        <v>595</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>700</v>
+        <v>814</v>
       </c>
       <c r="M40" t="s">
         <v>17</v>
@@ -3329,22 +3518,22 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>701</v>
+        <v>596</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>474</v>
+        <v>380</v>
       </c>
       <c r="F42" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="M42" t="s">
         <v>17</v>
@@ -3352,22 +3541,22 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>702</v>
+        <v>597</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>482</v>
+        <v>388</v>
       </c>
       <c r="F44" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="M44" t="s">
         <v>17</v>
@@ -3375,22 +3564,22 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>703</v>
+        <v>598</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>483</v>
+        <v>389</v>
       </c>
       <c r="F46" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s">
         <v>17</v>
@@ -3398,22 +3587,22 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>704</v>
+        <v>599</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>484</v>
+        <v>390</v>
       </c>
       <c r="F48" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s">
         <v>17</v>
@@ -3421,22 +3610,22 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>705</v>
+        <v>600</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>485</v>
+        <v>391</v>
       </c>
       <c r="F50" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="M50" t="s">
         <v>17</v>
@@ -3447,16 +3636,16 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>706</v>
+        <v>601</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K51" t="s">
-        <v>707</v>
+        <v>815</v>
       </c>
       <c r="M51" t="s">
         <v>17</v>
@@ -3464,19 +3653,19 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
-        <v>708</v>
+        <v>602</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>490</v>
+        <v>396</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3484,19 +3673,19 @@
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>709</v>
+        <v>603</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="F54" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="K54" t="s">
-        <v>710</v>
+        <v>816</v>
       </c>
       <c r="M54" t="s">
         <v>17</v>
@@ -3504,22 +3693,22 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>711</v>
+        <v>604</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E56" t="s">
-        <v>491</v>
+        <v>397</v>
       </c>
       <c r="F56" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="M56" t="s">
         <v>17</v>
@@ -3527,22 +3716,22 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B58" t="s">
-        <v>712</v>
+        <v>605</v>
       </c>
       <c r="C58" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E58" t="s">
-        <v>492</v>
+        <v>398</v>
       </c>
       <c r="F58" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="M58" t="s">
         <v>17</v>
@@ -3550,22 +3739,22 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>713</v>
+        <v>606</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E60" t="s">
-        <v>493</v>
+        <v>399</v>
       </c>
       <c r="F60" t="s">
-        <v>475</v>
+        <v>381</v>
       </c>
       <c r="M60" t="s">
         <v>17</v>
@@ -3573,16 +3762,16 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>421</v>
+        <v>327</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>494</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3592,16 +3781,16 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>714</v>
+        <v>607</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E64" t="s">
-        <v>495</v>
+        <v>401</v>
       </c>
       <c r="M64" t="s">
         <v>17</v>
@@ -3609,16 +3798,16 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
-        <v>715</v>
+        <v>608</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>500</v>
+        <v>406</v>
       </c>
       <c r="M66" t="s">
         <v>17</v>
@@ -3626,25 +3815,25 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>716</v>
+        <v>609</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E68" t="s">
-        <v>501</v>
+        <v>407</v>
       </c>
       <c r="F68" t="s">
-        <v>502</v>
+        <v>408</v>
       </c>
       <c r="K68" t="s">
-        <v>717</v>
+        <v>831</v>
       </c>
       <c r="M68" t="s">
         <v>17</v>
@@ -3655,16 +3844,16 @@
         <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>718</v>
+        <v>610</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E69" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K69" t="s">
-        <v>719</v>
+        <v>817</v>
       </c>
       <c r="M69" t="s">
         <v>17</v>
@@ -3672,22 +3861,22 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>720</v>
+        <v>611</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E71" t="s">
-        <v>514</v>
+        <v>420</v>
       </c>
       <c r="F71" t="s">
-        <v>513</v>
+        <v>419</v>
       </c>
       <c r="M71" t="s">
         <v>17</v>
@@ -3698,13 +3887,13 @@
         <v>35</v>
       </c>
       <c r="B72" t="s">
-        <v>721</v>
+        <v>612</v>
       </c>
       <c r="C72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E72" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="M72" t="s">
         <v>17</v>
@@ -3712,30 +3901,30 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>422</v>
+        <v>328</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>522</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B75" t="s">
-        <v>722</v>
+        <v>613</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="E75" t="s">
-        <v>523</v>
+        <v>429</v>
       </c>
       <c r="M75" t="s">
         <v>17</v>
@@ -3743,16 +3932,16 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B77" t="s">
-        <v>723</v>
+        <v>614</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>525</v>
+        <v>431</v>
       </c>
       <c r="M77" t="s">
         <v>17</v>
@@ -3760,22 +3949,22 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="B79" t="s">
-        <v>724</v>
+        <v>615</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="E79" t="s">
-        <v>526</v>
+        <v>432</v>
       </c>
       <c r="F79" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="K79" t="s">
-        <v>725</v>
+        <v>832</v>
       </c>
       <c r="M79" t="s">
         <v>17</v>
@@ -3786,16 +3975,16 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>726</v>
+        <v>616</v>
       </c>
       <c r="C80" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E80" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K80" t="s">
-        <v>727</v>
+        <v>818</v>
       </c>
       <c r="M80" t="s">
         <v>17</v>
@@ -3803,22 +3992,22 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
-        <v>728</v>
+        <v>617</v>
       </c>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E82" t="s">
-        <v>528</v>
+        <v>434</v>
       </c>
       <c r="F82" t="s">
-        <v>513</v>
+        <v>419</v>
       </c>
       <c r="M82" t="s">
         <v>17</v>
@@ -3829,16 +4018,16 @@
         <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>729</v>
+        <v>618</v>
       </c>
       <c r="C83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E83" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K83" t="s">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="M83" t="s">
         <v>17</v>
@@ -3846,36 +4035,36 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>423</v>
+        <v>329</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>536</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="B87" t="s">
-        <v>731</v>
+        <v>619</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="D87" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E87" t="s">
-        <v>537</v>
+        <v>443</v>
       </c>
       <c r="F87" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="M87" t="s">
         <v>17</v>
@@ -3886,16 +4075,16 @@
         <v>35</v>
       </c>
       <c r="B88" t="s">
-        <v>732</v>
+        <v>620</v>
       </c>
       <c r="C88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E88" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K88" t="s">
-        <v>733</v>
+        <v>820</v>
       </c>
       <c r="M88" t="s">
         <v>17</v>
@@ -3903,16 +4092,16 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>544</v>
+        <v>450</v>
       </c>
       <c r="B90" t="s">
-        <v>734</v>
+        <v>621</v>
       </c>
       <c r="C90" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="E90" t="s">
-        <v>543</v>
+        <v>449</v>
       </c>
       <c r="M90" t="s">
         <v>17</v>
@@ -3920,25 +4109,25 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>546</v>
+        <v>452</v>
       </c>
       <c r="B92" t="s">
-        <v>735</v>
+        <v>622</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>547</v>
+        <v>453</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E92" t="s">
-        <v>548</v>
+        <v>454</v>
       </c>
       <c r="F92" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="K92" t="s">
-        <v>736</v>
+        <v>833</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -3946,16 +4135,16 @@
         <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>737</v>
+        <v>623</v>
       </c>
       <c r="C93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E93" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K93" t="s">
-        <v>738</v>
+        <v>821</v>
       </c>
       <c r="M93" t="s">
         <v>17</v>
@@ -3963,19 +4152,19 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="B95" t="s">
-        <v>739</v>
+        <v>624</v>
       </c>
       <c r="C95" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="E95" t="s">
-        <v>562</v>
+        <v>468</v>
       </c>
       <c r="K95" t="s">
-        <v>736</v>
+        <v>833</v>
       </c>
       <c r="M95" t="s">
         <v>17</v>
@@ -3983,25 +4172,25 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="B97" t="s">
-        <v>740</v>
+        <v>625</v>
       </c>
       <c r="C97" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="D97" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E97" t="s">
-        <v>564</v>
+        <v>470</v>
       </c>
       <c r="F97" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="K97" t="s">
-        <v>736</v>
+        <v>833</v>
       </c>
       <c r="M97" t="s">
         <v>17</v>
@@ -4009,25 +4198,25 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="B100" t="s">
-        <v>741</v>
+        <v>626</v>
       </c>
       <c r="C100" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="D100" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E100" t="s">
-        <v>570</v>
+        <v>476</v>
       </c>
       <c r="F100" t="s">
-        <v>577</v>
+        <v>483</v>
       </c>
       <c r="K100" t="s">
-        <v>736</v>
+        <v>833</v>
       </c>
       <c r="M100" t="s">
         <v>17</v>
@@ -4038,16 +4227,16 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>742</v>
+        <v>627</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E101" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K101" t="s">
-        <v>743</v>
+        <v>822</v>
       </c>
       <c r="M101" t="s">
         <v>17</v>
@@ -4055,25 +4244,25 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>278</v>
+        <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>744</v>
+        <v>628</v>
       </c>
       <c r="C103" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E103" t="s">
-        <v>578</v>
+        <v>484</v>
       </c>
       <c r="F103" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="K103" t="s">
-        <v>736</v>
+        <v>833</v>
       </c>
       <c r="M103" t="s">
         <v>17</v>
@@ -4084,16 +4273,16 @@
         <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>745</v>
+        <v>629</v>
       </c>
       <c r="C104" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E104" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K104" t="s">
-        <v>746</v>
+        <v>823</v>
       </c>
       <c r="M104" t="s">
         <v>17</v>
@@ -4101,25 +4290,25 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="B106" t="s">
-        <v>747</v>
+        <v>630</v>
       </c>
       <c r="C106" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="D106" t="s">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="E106" t="s">
-        <v>583</v>
+        <v>489</v>
       </c>
       <c r="F106" t="s">
-        <v>584</v>
+        <v>490</v>
       </c>
       <c r="K106" t="s">
-        <v>748</v>
+        <v>631</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4127,16 +4316,16 @@
         <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>749</v>
+        <v>632</v>
       </c>
       <c r="C107" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E107" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K107" t="s">
-        <v>750</v>
+        <v>824</v>
       </c>
       <c r="M107" t="s">
         <v>17</v>
@@ -4147,16 +4336,16 @@
         <v>35</v>
       </c>
       <c r="B108" t="s">
-        <v>751</v>
+        <v>633</v>
       </c>
       <c r="C108" t="s">
-        <v>586</v>
+        <v>492</v>
       </c>
       <c r="E108" t="s">
-        <v>585</v>
+        <v>491</v>
       </c>
       <c r="K108" t="s">
-        <v>752</v>
+        <v>836</v>
       </c>
       <c r="M108" t="s">
         <v>17</v>
@@ -4164,16 +4353,16 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>319</v>
+        <v>245</v>
       </c>
       <c r="B110" t="s">
-        <v>753</v>
+        <v>634</v>
       </c>
       <c r="C110" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="E110" t="s">
-        <v>600</v>
+        <v>506</v>
       </c>
       <c r="M110" t="s">
         <v>17</v>
@@ -4181,16 +4370,16 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="B112" t="s">
-        <v>754</v>
+        <v>635</v>
       </c>
       <c r="C112" t="s">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>602</v>
+        <v>508</v>
       </c>
       <c r="M112" t="s">
         <v>17</v>
@@ -4198,16 +4387,16 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="B114" t="s">
-        <v>755</v>
+        <v>636</v>
       </c>
       <c r="C114" t="s">
-        <v>325</v>
+        <v>251</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>603</v>
+        <v>509</v>
       </c>
       <c r="M114" t="s">
         <v>17</v>
@@ -4215,22 +4404,22 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="B116" t="s">
-        <v>756</v>
+        <v>637</v>
       </c>
       <c r="C116" t="s">
-        <v>328</v>
+        <v>254</v>
       </c>
       <c r="D116" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>604</v>
+        <v>510</v>
       </c>
       <c r="F116" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="M116" t="s">
         <v>17</v>
@@ -4241,16 +4430,16 @@
         <v>35</v>
       </c>
       <c r="B117" t="s">
-        <v>757</v>
+        <v>638</v>
       </c>
       <c r="C117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E117" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K117" t="s">
-        <v>758</v>
+        <v>825</v>
       </c>
       <c r="M117" t="s">
         <v>17</v>
@@ -4258,22 +4447,22 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>342</v>
+        <v>263</v>
       </c>
       <c r="B119" t="s">
-        <v>759</v>
+        <v>639</v>
       </c>
       <c r="C119" t="s">
-        <v>341</v>
+        <v>262</v>
       </c>
       <c r="D119" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>605</v>
+        <v>511</v>
       </c>
       <c r="F119" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="M119" t="s">
         <v>17</v>
@@ -4284,16 +4473,16 @@
         <v>35</v>
       </c>
       <c r="B120" t="s">
-        <v>760</v>
+        <v>640</v>
       </c>
       <c r="C120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E120" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K120" t="s">
-        <v>761</v>
+        <v>826</v>
       </c>
       <c r="M120" t="s">
         <v>17</v>
@@ -4304,16 +4493,16 @@
         <v>35</v>
       </c>
       <c r="B121" t="s">
-        <v>762</v>
+        <v>641</v>
       </c>
       <c r="C121" t="s">
-        <v>391</v>
+        <v>299</v>
       </c>
       <c r="E121" t="s">
-        <v>611</v>
+        <v>517</v>
       </c>
       <c r="K121" t="s">
-        <v>763</v>
+        <v>835</v>
       </c>
       <c r="M121" t="s">
         <v>17</v>
@@ -4321,22 +4510,22 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="B123" t="s">
-        <v>764</v>
+        <v>642</v>
       </c>
       <c r="C123" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="D123" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>667</v>
+        <v>565</v>
       </c>
       <c r="F123" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="M123" t="s">
         <v>17</v>
@@ -4347,16 +4536,16 @@
         <v>35</v>
       </c>
       <c r="B124" t="s">
-        <v>765</v>
+        <v>643</v>
       </c>
       <c r="C124" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E124" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K124" t="s">
-        <v>766</v>
+        <v>827</v>
       </c>
       <c r="M124" t="s">
         <v>17</v>
@@ -4364,16 +4553,16 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>373</v>
+        <v>283</v>
       </c>
       <c r="B126" t="s">
-        <v>767</v>
+        <v>644</v>
       </c>
       <c r="C126" t="s">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="M126" t="s">
         <v>17</v>
@@ -4381,16 +4570,16 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>376</v>
+        <v>286</v>
       </c>
       <c r="B128" t="s">
-        <v>768</v>
+        <v>645</v>
       </c>
       <c r="C128" t="s">
-        <v>375</v>
+        <v>285</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>375</v>
+        <v>285</v>
       </c>
       <c r="M128" t="s">
         <v>17</v>
@@ -4398,16 +4587,16 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>379</v>
+        <v>289</v>
       </c>
       <c r="B130" t="s">
-        <v>769</v>
+        <v>646</v>
       </c>
       <c r="C130" t="s">
-        <v>378</v>
+        <v>288</v>
       </c>
       <c r="E130" t="s">
-        <v>627</v>
+        <v>533</v>
       </c>
       <c r="M130" t="s">
         <v>17</v>
@@ -4415,22 +4604,22 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>382</v>
+        <v>292</v>
       </c>
       <c r="B132" t="s">
-        <v>770</v>
+        <v>647</v>
       </c>
       <c r="C132" t="s">
-        <v>381</v>
+        <v>291</v>
       </c>
       <c r="D132" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E132" t="s">
-        <v>628</v>
+        <v>534</v>
       </c>
       <c r="F132" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="M132" t="s">
         <v>17</v>
@@ -4441,16 +4630,16 @@
         <v>35</v>
       </c>
       <c r="B133" t="s">
-        <v>771</v>
+        <v>648</v>
       </c>
       <c r="C133" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E133" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K133" t="s">
-        <v>772</v>
+        <v>828</v>
       </c>
       <c r="M133" t="s">
         <v>17</v>
@@ -4458,22 +4647,22 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>389</v>
+        <v>297</v>
       </c>
       <c r="B135" t="s">
-        <v>773</v>
+        <v>649</v>
       </c>
       <c r="C135" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="D135" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E135" t="s">
-        <v>631</v>
+        <v>537</v>
       </c>
       <c r="F135" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="M135" t="s">
         <v>17</v>
@@ -4484,16 +4673,16 @@
         <v>35</v>
       </c>
       <c r="B136" t="s">
-        <v>774</v>
+        <v>650</v>
       </c>
       <c r="C136" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E136" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="K136" t="s">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="M136" t="s">
         <v>17</v>
@@ -4504,16 +4693,16 @@
         <v>35</v>
       </c>
       <c r="B137" t="s">
-        <v>776</v>
+        <v>651</v>
       </c>
       <c r="C137" t="s">
-        <v>391</v>
+        <v>299</v>
       </c>
       <c r="E137" t="s">
-        <v>611</v>
+        <v>517</v>
       </c>
       <c r="K137" t="s">
-        <v>777</v>
+        <v>834</v>
       </c>
       <c r="M137" t="s">
         <v>17</v>
@@ -4521,19 +4710,19 @@
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>393</v>
+        <v>301</v>
       </c>
       <c r="B139" t="s">
-        <v>778</v>
+        <v>652</v>
       </c>
       <c r="C139" t="s">
-        <v>392</v>
+        <v>300</v>
       </c>
       <c r="D139" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="E139" t="s">
-        <v>632</v>
+        <v>538</v>
       </c>
       <c r="M139" t="s">
         <v>17</v>
@@ -4544,19 +4733,19 @@
         <v>35</v>
       </c>
       <c r="B140" t="s">
-        <v>779</v>
+        <v>653</v>
       </c>
       <c r="C140" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E140" t="s">
-        <v>453</v>
+        <v>359</v>
       </c>
       <c r="F140" t="s">
-        <v>527</v>
+        <v>433</v>
       </c>
       <c r="K140" t="s">
-        <v>780</v>
+        <v>830</v>
       </c>
       <c r="M140" t="s">
         <v>17</v>
@@ -4564,25 +4753,25 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>409</v>
+        <v>317</v>
       </c>
       <c r="C142" s="5"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="B143" t="s">
-        <v>781</v>
+        <v>654</v>
       </c>
       <c r="C143" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
       <c r="E143" t="s">
-        <v>637</v>
+        <v>543</v>
       </c>
       <c r="M143" t="s">
         <v>17</v>
@@ -4590,29 +4779,29 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>782</v>
+        <v>655</v>
       </c>
       <c r="C145" s="11" t="s">
-        <v>402</v>
+        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>783</v>
+        <v>656</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="B148" t="s">
-        <v>784</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -4626,8 +4815,8 @@
   <dimension ref="A1:I334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A336" sqref="A336:XFD1190"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4653,22 +4842,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>660</v>
+        <v>558</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>661</v>
+        <v>559</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>665</v>
+        <v>563</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="H1" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="I1" t="s">
-        <v>666</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -4685,43 +4874,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>321</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>414</v>
+        <v>322</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s">
-        <v>415</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>412</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>416</v>
+        <v>324</v>
       </c>
       <c r="C9" t="s">
-        <v>416</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4735,7 +4924,7 @@
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>668</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4749,7 +4938,7 @@
         <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>669</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4757,13 +4946,13 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>795</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>438</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4771,13 +4960,13 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>786</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>439</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4785,13 +4974,13 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>787</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>440</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4799,13 +4988,13 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>779</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>441</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4813,13 +5002,13 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>780</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>442</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -4827,13 +5016,13 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>674</v>
       </c>
       <c r="C19" t="s">
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>443</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -4841,13 +5030,13 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>789</v>
       </c>
       <c r="C20" t="s">
         <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4855,13 +5044,13 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>747</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>445</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4869,13 +5058,13 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>790</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>446</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4883,13 +5072,13 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>791</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>447</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -4897,13 +5086,13 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>792</v>
       </c>
       <c r="C24" t="s">
         <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>448</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -4911,13 +5100,13 @@
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>793</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>449</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4925,13 +5114,13 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>450</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4939,13 +5128,13 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>748</v>
       </c>
       <c r="C27" t="s">
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>451</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4953,3737 +5142,3737 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>675</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>452</v>
+        <v>358</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>677</v>
+      </c>
+      <c r="C30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
       <c r="E30" t="s">
-        <v>457</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>678</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" t="s">
-        <v>458</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>679</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>459</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>680</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>460</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>681</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>461</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>796</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" t="s">
-        <v>462</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>797</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>463</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>682</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
-        <v>464</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>683</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" t="s">
-        <v>465</v>
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>684</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>466</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>685</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>467</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" t="s">
-        <v>468</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>749</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E42" t="s">
-        <v>469</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>686</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>470</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>677</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>457</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>678</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>458</v>
+        <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>679</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47" t="s">
-        <v>459</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>680</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>460</v>
+        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>681</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s">
-        <v>461</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>796</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
-        <v>462</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>797</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>463</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>682</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>464</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>687</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E53" t="s">
-        <v>473</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>684</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>466</v>
+        <v>372</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>685</v>
+      </c>
+      <c r="C55" t="s">
         <v>77</v>
       </c>
-      <c r="B55" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" t="s">
-        <v>78</v>
-      </c>
       <c r="E55" t="s">
-        <v>467</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>468</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>749</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E57" t="s">
-        <v>469</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>686</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E58" t="s">
-        <v>470</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="C60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E60" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>788</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E61" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>689</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E62" t="s">
-        <v>478</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>690</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E63" t="s">
-        <v>479</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>750</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E64" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>691</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E65" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E67" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>788</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E68" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>689</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69" t="s">
-        <v>478</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>690</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E70" t="s">
-        <v>479</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>750</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E71" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>691</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E74" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>788</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E75" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>689</v>
       </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E76" t="s">
-        <v>478</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>690</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E77" t="s">
-        <v>479</v>
+        <v>385</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>87</v>
+        <v>750</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E78" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>88</v>
+        <v>691</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E81" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>788</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>689</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>478</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>690</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>479</v>
+        <v>385</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>750</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>691</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>798</v>
       </c>
       <c r="C88" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E88" t="s">
-        <v>486</v>
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>794</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E89" t="s">
-        <v>487</v>
+        <v>393</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>119</v>
+        <v>692</v>
       </c>
       <c r="C90" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E90" t="s">
-        <v>488</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
-        <v>489</v>
+        <v>395</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>87</v>
+        <v>751</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E92" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>693</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E93" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>798</v>
       </c>
       <c r="C95" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E95" t="s">
-        <v>486</v>
+        <v>392</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>794</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E96" t="s">
-        <v>487</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>692</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E97" t="s">
-        <v>488</v>
+        <v>394</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E98" t="s">
-        <v>489</v>
+        <v>395</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>87</v>
+        <v>751</v>
       </c>
       <c r="C99" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E99" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>693</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E100" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="C102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E102" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
+        <v>788</v>
       </c>
       <c r="C103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E103" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B104" t="s">
-        <v>85</v>
+        <v>689</v>
       </c>
       <c r="C104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E104" t="s">
-        <v>478</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>86</v>
+        <v>690</v>
       </c>
       <c r="C105" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E105" t="s">
-        <v>479</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>87</v>
+        <v>750</v>
       </c>
       <c r="C106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E106" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>88</v>
+        <v>691</v>
       </c>
       <c r="C107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E107" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="C109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E109" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>84</v>
+        <v>788</v>
       </c>
       <c r="C110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E110" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>85</v>
+        <v>689</v>
       </c>
       <c r="C111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E111" t="s">
-        <v>478</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>86</v>
+        <v>690</v>
       </c>
       <c r="C112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E112" t="s">
-        <v>479</v>
+        <v>385</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>87</v>
+        <v>750</v>
       </c>
       <c r="C113" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E113" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>88</v>
+        <v>691</v>
       </c>
       <c r="C114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E114" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>83</v>
+        <v>688</v>
       </c>
       <c r="C116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E116" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>84</v>
+        <v>788</v>
       </c>
       <c r="C117" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E117" t="s">
-        <v>477</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>85</v>
+        <v>689</v>
       </c>
       <c r="C118" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E118" t="s">
-        <v>478</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>86</v>
+        <v>690</v>
       </c>
       <c r="C119" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E119" t="s">
-        <v>479</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>87</v>
+        <v>750</v>
       </c>
       <c r="C120" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E120" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>88</v>
+        <v>691</v>
       </c>
       <c r="C121" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E121" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>137</v>
+        <v>694</v>
       </c>
       <c r="C123" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B124" t="s">
-        <v>138</v>
+        <v>752</v>
       </c>
       <c r="C124" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>139</v>
+        <v>753</v>
       </c>
       <c r="C125" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>498</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B126" t="s">
-        <v>140</v>
+        <v>695</v>
       </c>
       <c r="C126" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>499</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>137</v>
+        <v>694</v>
       </c>
       <c r="C128" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E128" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>138</v>
+        <v>752</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E129" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>139</v>
+        <v>753</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E130" t="s">
-        <v>498</v>
+        <v>404</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>695</v>
       </c>
       <c r="C131" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E131" t="s">
-        <v>499</v>
+        <v>405</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>147</v>
+        <v>696</v>
       </c>
       <c r="C133" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>503</v>
+        <v>409</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B134" t="s">
-        <v>161</v>
+        <v>697</v>
       </c>
       <c r="C134" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>504</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>162</v>
+        <v>698</v>
       </c>
       <c r="C135" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>505</v>
+        <v>411</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B136" t="s">
-        <v>150</v>
+        <v>754</v>
       </c>
       <c r="C136" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>506</v>
+        <v>412</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B137" t="s">
-        <v>163</v>
+        <v>755</v>
       </c>
       <c r="C137" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B138" t="s">
-        <v>164</v>
+        <v>699</v>
       </c>
       <c r="C138" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>508</v>
+        <v>414</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>700</v>
       </c>
       <c r="C139" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>509</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B140" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C140" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>510</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>756</v>
       </c>
       <c r="C141" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>701</v>
       </c>
       <c r="C142" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>512</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B144" t="s">
-        <v>175</v>
+        <v>757</v>
       </c>
       <c r="C144" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>515</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>176</v>
+        <v>799</v>
       </c>
       <c r="C145" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>516</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>177</v>
+        <v>800</v>
       </c>
       <c r="C146" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>517</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>178</v>
+        <v>801</v>
       </c>
       <c r="C147" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>518</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
-        <v>172</v>
+        <v>676</v>
       </c>
       <c r="C148" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>519</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>179</v>
+        <v>758</v>
       </c>
       <c r="C149" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>520</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>180</v>
+        <v>702</v>
       </c>
       <c r="C150" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>521</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>694</v>
       </c>
       <c r="C152" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E152" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B153" t="s">
-        <v>138</v>
+        <v>752</v>
       </c>
       <c r="C153" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E153" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>139</v>
+        <v>753</v>
       </c>
       <c r="C154" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E154" t="s">
-        <v>524</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>140</v>
+        <v>695</v>
       </c>
       <c r="C155" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E155" t="s">
-        <v>499</v>
+        <v>405</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>137</v>
+        <v>694</v>
       </c>
       <c r="C157" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E157" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="B158" t="s">
-        <v>138</v>
+        <v>752</v>
       </c>
       <c r="C158" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E158" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="B159" t="s">
-        <v>139</v>
+        <v>753</v>
       </c>
       <c r="C159" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E159" t="s">
-        <v>524</v>
+        <v>430</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>140</v>
+        <v>695</v>
       </c>
       <c r="C160" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E160" t="s">
-        <v>499</v>
+        <v>405</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>147</v>
+        <v>696</v>
       </c>
       <c r="C162" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E162" t="s">
-        <v>503</v>
+        <v>409</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>697</v>
       </c>
       <c r="C163" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E163" t="s">
-        <v>504</v>
+        <v>410</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>162</v>
+        <v>698</v>
       </c>
       <c r="C164" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E164" t="s">
-        <v>505</v>
+        <v>411</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>150</v>
+        <v>754</v>
       </c>
       <c r="C165" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E165" t="s">
-        <v>506</v>
+        <v>412</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B166" t="s">
-        <v>163</v>
+        <v>755</v>
       </c>
       <c r="C166" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E166" t="s">
-        <v>507</v>
+        <v>413</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>164</v>
+        <v>699</v>
       </c>
       <c r="C167" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E167" t="s">
-        <v>508</v>
+        <v>414</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B168" t="s">
-        <v>153</v>
+        <v>700</v>
       </c>
       <c r="C168" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E168" t="s">
-        <v>509</v>
+        <v>415</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B169" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C169" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E169" t="s">
-        <v>510</v>
+        <v>416</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B170" t="s">
-        <v>165</v>
+        <v>756</v>
       </c>
       <c r="C170" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E170" t="s">
-        <v>511</v>
+        <v>417</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B171" t="s">
-        <v>166</v>
+        <v>701</v>
       </c>
       <c r="C171" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E171" t="s">
-        <v>512</v>
+        <v>418</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>759</v>
       </c>
       <c r="C173" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E173" t="s">
-        <v>529</v>
+        <v>435</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>802</v>
       </c>
       <c r="C174" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E174" t="s">
-        <v>530</v>
+        <v>436</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B175" t="s">
-        <v>195</v>
+        <v>800</v>
       </c>
       <c r="C175" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="E175" t="s">
-        <v>517</v>
+        <v>423</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B176" t="s">
-        <v>201</v>
+        <v>703</v>
       </c>
       <c r="C176" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="E176" t="s">
-        <v>531</v>
+        <v>437</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B177" t="s">
-        <v>202</v>
+        <v>803</v>
       </c>
       <c r="C177" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="E177" t="s">
-        <v>532</v>
+        <v>438</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B178" t="s">
-        <v>198</v>
+        <v>676</v>
       </c>
       <c r="C178" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E178" t="s">
-        <v>533</v>
+        <v>439</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B179" t="s">
-        <v>203</v>
+        <v>760</v>
       </c>
       <c r="C179" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="E179" t="s">
-        <v>534</v>
+        <v>440</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B180" t="s">
-        <v>204</v>
+        <v>704</v>
       </c>
       <c r="C180" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="E180" t="s">
-        <v>535</v>
+        <v>441</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="B182" t="s">
-        <v>215</v>
+        <v>705</v>
       </c>
       <c r="C182" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E182" t="s">
-        <v>538</v>
+        <v>444</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="B183" t="s">
-        <v>216</v>
+        <v>706</v>
       </c>
       <c r="C183" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="E183" t="s">
-        <v>539</v>
+        <v>445</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="B184" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C184" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="E184" t="s">
-        <v>540</v>
+        <v>446</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="B185" t="s">
-        <v>217</v>
+        <v>761</v>
       </c>
       <c r="C185" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="E185" t="s">
-        <v>541</v>
+        <v>447</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="B186" t="s">
-        <v>218</v>
+        <v>707</v>
       </c>
       <c r="C186" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="E186" t="s">
-        <v>542</v>
+        <v>448</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="B188" t="s">
-        <v>137</v>
+        <v>568</v>
       </c>
       <c r="C188" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E188" t="s">
-        <v>670</v>
+        <v>568</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="B189" t="s">
-        <v>138</v>
+        <v>762</v>
       </c>
       <c r="C189" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E189" t="s">
-        <v>671</v>
+        <v>569</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="B190" t="s">
-        <v>251</v>
+        <v>763</v>
       </c>
       <c r="C190" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="E190" t="s">
-        <v>672</v>
+        <v>570</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="B191" t="s">
-        <v>140</v>
+        <v>571</v>
       </c>
       <c r="C191" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E191" t="s">
-        <v>673</v>
+        <v>571</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B193" t="s">
-        <v>234</v>
+        <v>708</v>
       </c>
       <c r="C193" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="E193" t="s">
-        <v>549</v>
+        <v>455</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B194" t="s">
-        <v>235</v>
+        <v>709</v>
       </c>
       <c r="C194" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="E194" t="s">
-        <v>550</v>
+        <v>456</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B195" t="s">
-        <v>236</v>
+        <v>710</v>
       </c>
       <c r="C195" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="E195" t="s">
-        <v>551</v>
+        <v>457</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B196" t="s">
-        <v>237</v>
+        <v>711</v>
       </c>
       <c r="C196" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="E196" t="s">
-        <v>552</v>
+        <v>458</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B197" t="s">
-        <v>238</v>
+        <v>712</v>
       </c>
       <c r="C197" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="E197" t="s">
-        <v>553</v>
+        <v>459</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B198" t="s">
-        <v>239</v>
+        <v>713</v>
       </c>
       <c r="C198" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="E198" t="s">
-        <v>554</v>
+        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B199" t="s">
-        <v>240</v>
+        <v>781</v>
       </c>
       <c r="C199" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="E199" t="s">
-        <v>555</v>
+        <v>461</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B200" t="s">
-        <v>241</v>
+        <v>804</v>
       </c>
       <c r="C200" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="E200" t="s">
-        <v>556</v>
+        <v>462</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B201" t="s">
-        <v>242</v>
+        <v>714</v>
       </c>
       <c r="C201" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="E201" t="s">
-        <v>557</v>
+        <v>463</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B202" t="s">
-        <v>243</v>
+        <v>782</v>
       </c>
       <c r="C202" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="E202" t="s">
-        <v>558</v>
+        <v>464</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B203" t="s">
-        <v>244</v>
+        <v>783</v>
       </c>
       <c r="C203" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="E203" t="s">
-        <v>559</v>
+        <v>465</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B204" t="s">
-        <v>245</v>
+        <v>715</v>
       </c>
       <c r="C204" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="E204" t="s">
-        <v>560</v>
+        <v>466</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B205" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C205" t="s">
         <v>54</v>
       </c>
       <c r="E205" t="s">
-        <v>450</v>
+        <v>356</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B206" t="s">
-        <v>246</v>
+        <v>764</v>
       </c>
       <c r="C206" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="E206" t="s">
-        <v>561</v>
+        <v>467</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
-        <v>545</v>
+        <v>451</v>
       </c>
       <c r="B207" t="s">
-        <v>247</v>
+        <v>716</v>
       </c>
       <c r="C207" t="s">
         <v>56</v>
       </c>
       <c r="E207" t="s">
-        <v>452</v>
+        <v>358</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="B209" t="s">
-        <v>137</v>
+        <v>568</v>
       </c>
       <c r="C209" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E209" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="B210" t="s">
-        <v>138</v>
+        <v>762</v>
       </c>
       <c r="C210" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E210" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="B211" t="s">
-        <v>251</v>
+        <v>763</v>
       </c>
       <c r="C211" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="E211" t="s">
-        <v>563</v>
+        <v>469</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="B212" t="s">
-        <v>140</v>
+        <v>571</v>
       </c>
       <c r="C212" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E212" t="s">
-        <v>499</v>
+        <v>405</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="B214" t="s">
-        <v>260</v>
+        <v>717</v>
       </c>
       <c r="C214" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="E214" t="s">
-        <v>565</v>
+        <v>471</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="B215" t="s">
-        <v>261</v>
+        <v>718</v>
       </c>
       <c r="C215" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
       <c r="E215" t="s">
-        <v>566</v>
+        <v>472</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="B216" t="s">
-        <v>262</v>
+        <v>765</v>
       </c>
       <c r="C216" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="E216" t="s">
-        <v>567</v>
+        <v>473</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="B217" t="s">
-        <v>258</v>
+        <v>766</v>
       </c>
       <c r="C217" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="E217" t="s">
-        <v>568</v>
+        <v>474</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="B218" t="s">
-        <v>263</v>
+        <v>767</v>
       </c>
       <c r="C218" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="E218" t="s">
-        <v>569</v>
+        <v>475</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="B219" t="s">
-        <v>264</v>
+        <v>691</v>
       </c>
       <c r="C219" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E219" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B221" t="s">
-        <v>274</v>
+        <v>719</v>
       </c>
       <c r="C221" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="E221" t="s">
-        <v>571</v>
+        <v>477</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B222" t="s">
-        <v>269</v>
+        <v>784</v>
       </c>
       <c r="C222" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="E222" t="s">
-        <v>572</v>
+        <v>478</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B223" t="s">
-        <v>270</v>
+        <v>720</v>
       </c>
       <c r="C223" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="E223" t="s">
-        <v>573</v>
+        <v>479</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B224" t="s">
-        <v>275</v>
+        <v>805</v>
       </c>
       <c r="C224" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="E224" t="s">
-        <v>574</v>
+        <v>480</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B225" t="s">
-        <v>272</v>
+        <v>721</v>
       </c>
       <c r="C225" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="E225" t="s">
-        <v>575</v>
+        <v>481</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B226" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C226" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E226" t="s">
-        <v>533</v>
+        <v>439</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B227" t="s">
-        <v>276</v>
+        <v>768</v>
       </c>
       <c r="C227" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="E227" t="s">
-        <v>576</v>
+        <v>482</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="B229" t="s">
-        <v>288</v>
+        <v>722</v>
       </c>
       <c r="C229" t="s">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="E229" t="s">
-        <v>579</v>
+        <v>485</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="B230" t="s">
-        <v>289</v>
+        <v>806</v>
       </c>
       <c r="C230" t="s">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="E230" t="s">
-        <v>580</v>
+        <v>486</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="B231" t="s">
-        <v>290</v>
+        <v>723</v>
       </c>
       <c r="C231" t="s">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="E231" t="s">
-        <v>581</v>
+        <v>487</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="B232" t="s">
-        <v>291</v>
+        <v>724</v>
       </c>
       <c r="C232" t="s">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="E232" t="s">
-        <v>582</v>
+        <v>488</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="B233" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C233" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E233" t="s">
-        <v>519</v>
+        <v>425</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="B234" t="s">
-        <v>292</v>
+        <v>768</v>
       </c>
       <c r="C234" t="s">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="E234" t="s">
-        <v>576</v>
+        <v>482</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B236" t="s">
-        <v>307</v>
+        <v>769</v>
       </c>
       <c r="C236" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="E236" t="s">
-        <v>587</v>
+        <v>493</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B237" t="s">
-        <v>308</v>
+        <v>770</v>
       </c>
       <c r="C237" t="s">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="E237" t="s">
-        <v>588</v>
+        <v>494</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B238" t="s">
-        <v>417</v>
+        <v>807</v>
       </c>
       <c r="C238" t="s">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="E238" t="s">
-        <v>589</v>
+        <v>495</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B239" t="s">
-        <v>309</v>
+        <v>725</v>
       </c>
       <c r="C239" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="E239" t="s">
-        <v>590</v>
+        <v>496</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B240" t="s">
-        <v>310</v>
+        <v>726</v>
       </c>
       <c r="C240" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="E240" t="s">
-        <v>591</v>
+        <v>497</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B241" t="s">
-        <v>311</v>
+        <v>771</v>
       </c>
       <c r="C241" t="s">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="E241" t="s">
-        <v>592</v>
+        <v>498</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B242" t="s">
-        <v>312</v>
+        <v>727</v>
       </c>
       <c r="C242" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="E242" t="s">
-        <v>593</v>
+        <v>499</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B243" t="s">
-        <v>313</v>
+        <v>772</v>
       </c>
       <c r="C243" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="E243" t="s">
-        <v>594</v>
+        <v>500</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B244" t="s">
-        <v>314</v>
+        <v>728</v>
       </c>
       <c r="C244" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
       <c r="E244" t="s">
-        <v>595</v>
+        <v>501</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B245" t="s">
-        <v>315</v>
+        <v>773</v>
       </c>
       <c r="C245" t="s">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="E245" t="s">
-        <v>596</v>
+        <v>502</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B246" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C246" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
       <c r="E246" t="s">
-        <v>597</v>
+        <v>503</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B247" t="s">
-        <v>316</v>
+        <v>774</v>
       </c>
       <c r="C247" t="s">
-        <v>305</v>
+        <v>242</v>
       </c>
       <c r="E247" t="s">
-        <v>598</v>
+        <v>504</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B248" t="s">
-        <v>317</v>
+        <v>729</v>
       </c>
       <c r="C248" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="E248" t="s">
-        <v>599</v>
+        <v>505</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="B250" t="s">
-        <v>137</v>
+        <v>568</v>
       </c>
       <c r="C250" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E250" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="B251" t="s">
-        <v>138</v>
+        <v>762</v>
       </c>
       <c r="C251" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E251" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="B252" t="s">
-        <v>321</v>
+        <v>730</v>
       </c>
       <c r="C252" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="E252" t="s">
-        <v>601</v>
+        <v>507</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="B254" t="s">
-        <v>137</v>
+        <v>568</v>
       </c>
       <c r="C254" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E254" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="B255" t="s">
-        <v>138</v>
+        <v>762</v>
       </c>
       <c r="C255" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="B256" t="s">
-        <v>321</v>
+        <v>730</v>
       </c>
       <c r="C256" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="E256" t="s">
-        <v>601</v>
+        <v>507</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="B258" t="s">
-        <v>137</v>
+        <v>568</v>
       </c>
       <c r="C258" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E258" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="B259" t="s">
-        <v>138</v>
+        <v>762</v>
       </c>
       <c r="C259" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E259" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>327</v>
+        <v>253</v>
       </c>
       <c r="B260" t="s">
-        <v>321</v>
+        <v>730</v>
       </c>
       <c r="C260" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="E260" t="s">
-        <v>601</v>
+        <v>507</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="B262" t="s">
-        <v>336</v>
+        <v>731</v>
       </c>
       <c r="C262" t="s">
-        <v>331</v>
+        <v>257</v>
       </c>
       <c r="E262" t="s">
-        <v>606</v>
+        <v>512</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="B263" t="s">
-        <v>337</v>
+        <v>732</v>
       </c>
       <c r="C263" t="s">
-        <v>332</v>
+        <v>258</v>
       </c>
       <c r="E263" t="s">
-        <v>607</v>
+        <v>513</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="B264" t="s">
-        <v>338</v>
+        <v>733</v>
       </c>
       <c r="C264" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="E264" t="s">
-        <v>608</v>
+        <v>514</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="B265" t="s">
-        <v>339</v>
+        <v>785</v>
       </c>
       <c r="C265" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="E265" t="s">
-        <v>609</v>
+        <v>515</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="B266" t="s">
-        <v>340</v>
+        <v>808</v>
       </c>
       <c r="C266" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="E266" t="s">
-        <v>610</v>
+        <v>516</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="B267" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C267" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E267" t="s">
-        <v>533</v>
+        <v>439</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="B268" t="s">
-        <v>203</v>
+        <v>760</v>
       </c>
       <c r="C268" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="E268" t="s">
-        <v>534</v>
+        <v>440</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>330</v>
+        <v>256</v>
       </c>
       <c r="B269" t="s">
-        <v>204</v>
+        <v>704</v>
       </c>
       <c r="C269" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="E269" t="s">
-        <v>535</v>
+        <v>441</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="B271" t="s">
-        <v>307</v>
+        <v>775</v>
       </c>
       <c r="C271" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="E271" t="s">
-        <v>612</v>
+        <v>518</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="B272" t="s">
-        <v>418</v>
+        <v>809</v>
       </c>
       <c r="C272" t="s">
-        <v>344</v>
+        <v>265</v>
       </c>
       <c r="E272" t="s">
-        <v>613</v>
+        <v>519</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="B273" t="s">
-        <v>356</v>
+        <v>734</v>
       </c>
       <c r="C273" t="s">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="E273" t="s">
-        <v>614</v>
+        <v>520</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="B274" t="s">
-        <v>357</v>
+        <v>735</v>
       </c>
       <c r="C274" t="s">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="E274" t="s">
-        <v>615</v>
+        <v>521</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="B275" t="s">
-        <v>358</v>
+        <v>736</v>
       </c>
       <c r="C275" t="s">
-        <v>347</v>
+        <v>268</v>
       </c>
       <c r="E275" t="s">
-        <v>616</v>
+        <v>522</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="B276" t="s">
-        <v>359</v>
+        <v>737</v>
       </c>
       <c r="C276" t="s">
-        <v>348</v>
+        <v>269</v>
       </c>
       <c r="E276" t="s">
-        <v>617</v>
+        <v>523</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="B277" t="s">
-        <v>355</v>
+        <v>776</v>
       </c>
       <c r="C277" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E277" t="s">
-        <v>618</v>
+        <v>524</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="B278" t="s">
-        <v>360</v>
+        <v>738</v>
       </c>
       <c r="C278" t="s">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="E278" t="s">
-        <v>619</v>
+        <v>525</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="B279" t="s">
-        <v>361</v>
+        <v>777</v>
       </c>
       <c r="C279" t="s">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="E279" t="s">
-        <v>620</v>
+        <v>526</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="B280" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C280" t="s">
-        <v>352</v>
+        <v>273</v>
       </c>
       <c r="E280" t="s">
-        <v>621</v>
+        <v>527</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="B281" t="s">
-        <v>362</v>
+        <v>778</v>
       </c>
       <c r="C281" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="E281" t="s">
-        <v>622</v>
+        <v>528</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="B282" t="s">
-        <v>363</v>
+        <v>739</v>
       </c>
       <c r="C282" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="E282" t="s">
-        <v>623</v>
+        <v>529</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B284" t="s">
-        <v>367</v>
+        <v>740</v>
       </c>
       <c r="C284" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="E284" t="s">
-        <v>624</v>
+        <v>530</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B285" t="s">
-        <v>370</v>
+        <v>741</v>
       </c>
       <c r="C285" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="E285" t="s">
-        <v>625</v>
+        <v>531</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B286" t="s">
-        <v>369</v>
+        <v>810</v>
       </c>
       <c r="C286" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="E286" t="s">
-        <v>626</v>
+        <v>532</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B287" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C287" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E287" t="s">
-        <v>489</v>
+        <v>395</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B288" t="s">
-        <v>371</v>
+        <v>750</v>
       </c>
       <c r="C288" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E288" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B289" t="s">
-        <v>264</v>
+        <v>691</v>
       </c>
       <c r="C289" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E289" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>374</v>
+        <v>284</v>
       </c>
       <c r="B291" t="s">
-        <v>137</v>
+        <v>568</v>
       </c>
       <c r="C291" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E291" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>374</v>
+        <v>284</v>
       </c>
       <c r="B292" t="s">
-        <v>138</v>
+        <v>762</v>
       </c>
       <c r="C292" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E292" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>374</v>
+        <v>284</v>
       </c>
       <c r="B293" t="s">
-        <v>321</v>
+        <v>730</v>
       </c>
       <c r="C293" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="E293" t="s">
-        <v>601</v>
+        <v>507</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>377</v>
+        <v>287</v>
       </c>
       <c r="B295" t="s">
-        <v>137</v>
+        <v>568</v>
       </c>
       <c r="C295" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E295" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>377</v>
+        <v>287</v>
       </c>
       <c r="B296" t="s">
-        <v>138</v>
+        <v>762</v>
       </c>
       <c r="C296" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E296" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>377</v>
+        <v>287</v>
       </c>
       <c r="B297" t="s">
-        <v>321</v>
+        <v>730</v>
       </c>
       <c r="C297" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="E297" t="s">
-        <v>601</v>
+        <v>507</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="B299" t="s">
-        <v>137</v>
+        <v>568</v>
       </c>
       <c r="C299" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E299" t="s">
-        <v>496</v>
+        <v>402</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="B300" t="s">
-        <v>138</v>
+        <v>762</v>
       </c>
       <c r="C300" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E300" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>380</v>
+        <v>290</v>
       </c>
       <c r="B301" t="s">
-        <v>321</v>
+        <v>730</v>
       </c>
       <c r="C301" t="s">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c r="E301" t="s">
-        <v>601</v>
+        <v>507</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="B303" t="s">
-        <v>385</v>
+        <v>742</v>
       </c>
       <c r="C303" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="E303" t="s">
-        <v>629</v>
+        <v>535</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="B304" t="s">
-        <v>387</v>
+        <v>743</v>
       </c>
       <c r="C304" t="s">
-        <v>386</v>
+        <v>295</v>
       </c>
       <c r="E304" t="s">
-        <v>630</v>
+        <v>536</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="B305" t="s">
-        <v>338</v>
+        <v>733</v>
       </c>
       <c r="C305" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="E305" t="s">
-        <v>608</v>
+        <v>514</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="B306" t="s">
-        <v>339</v>
+        <v>785</v>
       </c>
       <c r="C306" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="E306" t="s">
-        <v>609</v>
+        <v>515</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="B307" t="s">
-        <v>340</v>
+        <v>808</v>
       </c>
       <c r="C307" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="E307" t="s">
-        <v>610</v>
+        <v>516</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="B308" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C308" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E308" t="s">
-        <v>533</v>
+        <v>439</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="B309" t="s">
-        <v>203</v>
+        <v>760</v>
       </c>
       <c r="C309" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="E309" t="s">
-        <v>534</v>
+        <v>440</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>383</v>
+        <v>293</v>
       </c>
       <c r="B310" t="s">
-        <v>204</v>
+        <v>704</v>
       </c>
       <c r="C310" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="E310" t="s">
-        <v>535</v>
+        <v>441</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B312" t="s">
-        <v>307</v>
+        <v>775</v>
       </c>
       <c r="C312" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="E312" t="s">
-        <v>612</v>
+        <v>518</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B313" t="s">
-        <v>418</v>
+        <v>809</v>
       </c>
       <c r="C313" t="s">
-        <v>344</v>
+        <v>265</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>519</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B314" t="s">
-        <v>356</v>
+        <v>734</v>
       </c>
       <c r="C314" t="s">
-        <v>345</v>
+        <v>266</v>
       </c>
       <c r="E314" t="s">
-        <v>614</v>
+        <v>520</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B315" t="s">
-        <v>357</v>
+        <v>735</v>
       </c>
       <c r="C315" t="s">
-        <v>346</v>
+        <v>267</v>
       </c>
       <c r="E315" t="s">
-        <v>615</v>
+        <v>521</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B316" t="s">
-        <v>358</v>
+        <v>736</v>
       </c>
       <c r="C316" t="s">
-        <v>347</v>
+        <v>268</v>
       </c>
       <c r="E316" t="s">
-        <v>616</v>
+        <v>522</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B317" t="s">
-        <v>359</v>
+        <v>737</v>
       </c>
       <c r="C317" t="s">
-        <v>348</v>
+        <v>269</v>
       </c>
       <c r="E317" t="s">
-        <v>617</v>
+        <v>523</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B318" t="s">
-        <v>355</v>
+        <v>776</v>
       </c>
       <c r="C318" t="s">
-        <v>349</v>
+        <v>270</v>
       </c>
       <c r="E318" t="s">
-        <v>618</v>
+        <v>524</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B319" t="s">
-        <v>360</v>
+        <v>738</v>
       </c>
       <c r="C319" t="s">
-        <v>350</v>
+        <v>271</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>525</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B320" t="s">
-        <v>361</v>
+        <v>777</v>
       </c>
       <c r="C320" t="s">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="E320" t="s">
-        <v>620</v>
+        <v>526</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B321" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C321" t="s">
-        <v>352</v>
+        <v>273</v>
       </c>
       <c r="E321" t="s">
-        <v>621</v>
+        <v>527</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B322" t="s">
-        <v>362</v>
+        <v>778</v>
       </c>
       <c r="C322" t="s">
-        <v>353</v>
+        <v>274</v>
       </c>
       <c r="E322" t="s">
-        <v>622</v>
+        <v>528</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="B323" t="s">
-        <v>363</v>
+        <v>739</v>
       </c>
       <c r="C323" t="s">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>529</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="B325" t="s">
-        <v>367</v>
+        <v>740</v>
       </c>
       <c r="C325" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="E325" t="s">
-        <v>624</v>
+        <v>530</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="B326" t="s">
-        <v>370</v>
+        <v>741</v>
       </c>
       <c r="C326" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="E326" t="s">
-        <v>625</v>
+        <v>531</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="B327" t="s">
-        <v>369</v>
+        <v>811</v>
       </c>
       <c r="C327" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="E327" t="s">
-        <v>633</v>
+        <v>539</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="B328" t="s">
-        <v>57</v>
+        <v>676</v>
       </c>
       <c r="C328" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E328" t="s">
-        <v>489</v>
+        <v>395</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="B329" t="s">
-        <v>371</v>
+        <v>750</v>
       </c>
       <c r="C329" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E329" t="s">
-        <v>480</v>
+        <v>386</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="B330" t="s">
-        <v>264</v>
+        <v>691</v>
       </c>
       <c r="C330" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E330" t="s">
-        <v>481</v>
+        <v>387</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>397</v>
+        <v>305</v>
       </c>
       <c r="B332" t="s">
-        <v>398</v>
+        <v>744</v>
       </c>
       <c r="C332" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="E332" t="s">
-        <v>634</v>
+        <v>540</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>397</v>
+        <v>305</v>
       </c>
       <c r="B333" t="s">
-        <v>399</v>
+        <v>745</v>
       </c>
       <c r="C333" t="s">
-        <v>399</v>
+        <v>307</v>
       </c>
       <c r="E333" t="s">
-        <v>635</v>
+        <v>541</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>397</v>
+        <v>305</v>
       </c>
       <c r="B334" t="s">
-        <v>400</v>
+        <v>746</v>
       </c>
       <c r="C334" t="s">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="E334" t="s">
-        <v>636</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -8696,7 +8885,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8709,30 +8898,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>404</v>
+        <v>312</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>405</v>
+        <v>313</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>406</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="B2" t="s">
-        <v>638</v>
+        <v>673</v>
       </c>
       <c r="C2">
         <v>20210504</v>
       </c>
       <c r="D2" t="s">
-        <v>664</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_2_child_kap_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_2_child_kap_202105.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF05C7DF-EB01-4BB1-AC08-AB8287151F1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CAFE57-55E7-4828-A99A-D726C5AB121A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="838">
   <si>
     <t>type</t>
   </si>
@@ -2533,6 +2533,9 @@
   </si>
   <si>
     <t>selected(${p_didnot_med}, ‘3.Fear of side effects (mention some)’)</t>
+  </si>
+  <si>
+    <t>selected(${p_treatment_worms}, ‘Outros’)</t>
   </si>
 </sst>
 </file>
@@ -2940,10 +2943,10 @@
   <dimension ref="A1:P148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3894,6 +3897,9 @@
       </c>
       <c r="E72" t="s">
         <v>359</v>
+      </c>
+      <c r="K72" t="s">
+        <v>837</v>
       </c>
       <c r="M72" t="s">
         <v>17</v>

--- a/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_2_child_kap_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_2_child_kap_202105.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9887952-0025-453A-98CB-74001E2FD1DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730CB837-0A64-4F32-A4C3-F68D9F2BD1CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -3204,11 +3204,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P161"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5475,8 +5475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>

--- a/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_2_child_kap_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_2_child_kap_202105.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C3D400-51B7-45E7-9E3D-3B0E96635AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3175BC-158C-417C-85AD-290F8ECF89FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -6903,10 +6903,10 @@
     <t>Escola Primária Nº 7</t>
   </si>
   <si>
-    <t>ao_sch_sth_baseline_2_child_kap_202105_v6_1</t>
-  </si>
-  <si>
-    <t>2. Formulário Individual da Criança - Conhecimentos, Atitudes e Práticas dos Alunos na Escola Hookworm V6.1</t>
+    <t>ao_sch_sth_baseline_2_child_kap_202105_v6_2</t>
+  </si>
+  <si>
+    <t>2. Formulário Individual da Criança - Conhecimentos, Atitudes e Práticas dos Alunos na Escola Hookworm V6.2</t>
   </si>
 </sst>
 </file>
@@ -9859,7 +9859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1678"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A328" sqref="A328:I1678"/>
     </sheetView>
@@ -42597,7 +42597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
